--- a/Data/g2.xlsx
+++ b/Data/g2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/afa0d6d9c1382b5f/Documents/Master i treningsfysiologi/Kvantitativ metode og statistikk/Rapport 1 - VO2max/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mappeeksamen\Mappeeksamen\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F7888A0-71B4-4184-9727-218C10C23F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAB7EA3-AB20-43C4-8BBE-84D0EB2CA74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7E94264A-058A-1B4C-853F-B20CD5202A47}"/>
   </bookViews>
@@ -53,9 +53,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>t.o.day</t>
-  </si>
-  <si>
     <t>temperature</t>
   </si>
   <si>
@@ -126,6 +123,9 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>today</t>
   </si>
 </sst>
 </file>
@@ -599,7 +599,7 @@
   <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -618,52 +618,52 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -671,16 +671,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
       </c>
       <c r="D2" s="1">
         <v>45544</v>
       </c>
       <c r="E2" s="3">
-        <v>0.44722222222222219</v>
+        <v>0.44722222222222224</v>
       </c>
       <c r="F2">
         <v>19.899999999999999</v>
@@ -689,7 +689,7 @@
         <v>77</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I2">
         <v>27.956164383561642</v>
@@ -719,7 +719,7 @@
         <v>64.2</v>
       </c>
       <c r="R2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S2" s="4">
         <v>14.51</v>
@@ -733,10 +733,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1">
         <v>45546</v>
@@ -751,7 +751,7 @@
         <v>53</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I3">
         <v>27.961643835616439</v>
@@ -876,10 +876,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1">
         <v>45533</v>
@@ -894,7 +894,7 @@
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I5">
         <v>23.186301369863013</v>
@@ -938,10 +938,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1">
         <v>45533</v>
@@ -956,7 +956,7 @@
         <v>68</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6">
         <v>23.389041095890413</v>
@@ -1000,10 +1000,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1">
         <v>45531</v>
@@ -1018,7 +1018,7 @@
         <v>65</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I7">
         <v>23.383561643835616</v>
@@ -1062,10 +1062,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1">
         <v>45531</v>
@@ -1080,7 +1080,7 @@
         <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8">
         <v>24.213698630136985</v>
@@ -1124,10 +1124,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1">
         <v>45533</v>
@@ -1142,7 +1142,7 @@
         <v>68</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9">
         <v>24.219178082191782</v>
@@ -1175,7 +1175,7 @@
         <v>191</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T9">
         <v>19</v>
@@ -1186,10 +1186,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
         <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
       </c>
       <c r="D10" s="1">
         <v>45544</v>
@@ -1204,7 +1204,7 @@
         <v>82</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I10">
         <v>24.24931506849315</v>
@@ -1248,10 +1248,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1">
         <v>45546</v>
@@ -1266,7 +1266,7 @@
         <v>53</v>
       </c>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I11">
         <v>24.254794520547946</v>
@@ -1310,10 +1310,10 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="1">
         <v>45546</v>
@@ -1328,7 +1328,7 @@
         <v>52</v>
       </c>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I12">
         <v>43.717808219178082</v>
